--- a/secure/26e-Ida.xlsx
+++ b/secure/26e-Ida.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Ida-222060</t>
+    <t>26e-Ida-219168</t>
   </si>
   <si>
-    <t>26e-Ida-1053394</t>
+    <t>26e-Ida-878279</t>
   </si>
   <si>
-    <t>26e-Ida-616747</t>
+    <t>26e-Ida-602902</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Ffa7c7dc"/>
+        <fgColor rgb="Fe26bcc6"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:UP503"/>
+  <dimension ref="A1:VD503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -523,11 +523,14 @@
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:524" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>-0.956</v>
       </c>
       <c r="M13" s="4"/>
+      <c r="TD13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1063,14 +1066,11 @@
       </c>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="1:284" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>-0.596</v>
       </c>
       <c r="M103" s="4"/>
-      <c r="JX103" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
@@ -1282,11 +1282,14 @@
       </c>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:576" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>-0.452</v>
       </c>
       <c r="M139" s="4"/>
+      <c r="VD139" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
@@ -1906,14 +1909,11 @@
       </c>
       <c r="M242" s="4"/>
     </row>
-    <row r="243" spans="1:451" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>-0.036</v>
       </c>
       <c r="M243" s="4"/>
-      <c r="QI243" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
@@ -1933,14 +1933,11 @@
       </c>
       <c r="M246" s="4"/>
     </row>
-    <row r="247" spans="1:562" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>-0.02</v>
       </c>
       <c r="M247" s="4"/>
-      <c r="UP247" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
@@ -3412,11 +3409,14 @@
       </c>
       <c r="M492" s="4"/>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:463" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>0.964</v>
       </c>
       <c r="M493" s="4"/>
+      <c r="QU493" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
